--- a/DW+P5+-+Modele+plan+tests+acceptation.xlsx
+++ b/DW+P5+-+Modele+plan+tests+acceptation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/69947a4cebadb8f1/Bureau/projet_5_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/69947a4cebadb8f1/Bureau/projet_5_V1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_91AA243AD46ACDB9E5A50D17A2E73107414BF062" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{234F7E6D-D522-43E1-A1AB-5C894FB2AD66}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_91AA243AD46ACDB9E5A50D17A2E73107414BF062" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E6A2FDA-FE63-4E6C-A929-A52FCEC43F35}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -52,21 +52,12 @@
     <t>Creé les produits avec une boucle for of</t>
   </si>
   <si>
-    <t>Inclure dans la balise &lt;a href="product.html?_id=" + product._id&gt; id du produit pour rediriger vers la page de celui-ci</t>
-  </si>
-  <si>
-    <t>Affichage de la page produit avec le produit en question</t>
-  </si>
-  <si>
     <t>Page Produit</t>
   </si>
   <si>
     <t>Mettre des addEventListener pour écouter les modifications et pouvoir les modifier dans le local Storage</t>
   </si>
   <si>
-    <t>Ajoute des produits dans le local Storage</t>
-  </si>
-  <si>
     <t>Page Panier</t>
   </si>
   <si>
@@ -82,22 +73,13 @@
     <t>Page Accueil</t>
   </si>
   <si>
-    <t>Utiliser les Regex et addEventListener pour analysés et validés les données</t>
-  </si>
-  <si>
     <t>Faire une requete fetch pour recevoir les données de l API</t>
   </si>
   <si>
-    <t>Analyse des données avant l'envoi du formulaire</t>
-  </si>
-  <si>
     <t>Suppression du produit du local storage et du panier</t>
   </si>
   <si>
     <t>page Confirmation</t>
-  </si>
-  <si>
-    <t>Faire une requete fecth en methide Post a l'API pour recevoir le numero de commande</t>
   </si>
   <si>
     <t>Numéro de commande reçu sans que le numéro soit stocké</t>
@@ -120,6 +102,52 @@
   </si>
   <si>
     <t>Sur cette page, l’utilisateur va pouvoir modifier la quantité d’un produit de son panier ; à ce moment, le total du panier devra bien se mettre à jour.</t>
+  </si>
+  <si>
+    <t>Affichage de la page produit avec le produit en question et ses options</t>
+  </si>
+  <si>
+    <t>Cliquez sur le produit choisi pour être rediriger vers la page produit de celui-ci</t>
+  </si>
+  <si>
+    <t>Ajoute et modifie les produits dans le local Storage</t>
+  </si>
+  <si>
+    <t>Entrez dans le formulaire des informations erronées et valides pour tester si la vérification s'est bien effectué</t>
+  </si>
+  <si>
+    <t>Message d'erreur s'affiche lors d'un champ erroné et impossible d'envoyer le formulaire, si tous les champs sont validés on a la possibilité d'envoyer le formulaire</t>
+  </si>
+  <si>
+    <t>Faire une requete fecth en methode Post a l'API pour recevoir le numero de commande</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Lorsqu’on ajoute un produit au panier, si celui-ci n'était pas déjà
+présent dans le panier, on ajoute un nouvel élément dans l’array.
+ Lorsqu’on ajoute un produit au panier, si celui-ci était déjà présent
+dans le panier (même id + même couleur), on incrémente
+simplement la quantité du produit correspondant dans l’array.</t>
+  </si>
+  <si>
+    <t>Ajouter un nouveau produit pour vérifier qu'il s'ajoute bien dans le panier, ajouter un produit avec le même id et couleur pour vérifier qu'il rajoute juste la quantité au produit déjà au panier</t>
+  </si>
+  <si>
+    <t>Les différents produits sont bien ajouter au panier selon leurs id et leurs couleurs</t>
   </si>
 </sst>
 </file>
@@ -191,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -372,64 +400,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -495,23 +465,78 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -521,9 +546,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -569,40 +591,55 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -822,282 +859,230 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.21875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="76.21875" style="34" customWidth="1"/>
-    <col min="3" max="3" width="51.109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="58.6640625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="14.44140625" style="5"/>
+    <col min="1" max="1" width="4.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="102.88671875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="54.88671875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="14.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:5" s="14" customFormat="1" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="28" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="1:5" s="25" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="15" customFormat="1" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="14" customFormat="1" ht="128.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" s="14" customFormat="1" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="14" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="14" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" s="14" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="14" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="14" customFormat="1" ht="154.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="34" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" s="17" customFormat="1" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="1:5" s="14" customFormat="1" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="18" customFormat="1" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="17" customFormat="1" ht="128.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="17" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" s="17" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="17" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" s="17" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="17" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="17" customFormat="1" ht="154.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="17" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:5" s="17" customFormat="1" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>